--- a/NEW HR/RAMOS, EULOGIA.xlsx
+++ b/NEW HR/RAMOS, EULOGIA.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DOLE\Desktop\LEAVECARD\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DOLE\Desktop\LEAVE-CARD\NEW HR\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="62">
   <si>
     <t>PERIOD</t>
   </si>
@@ -217,6 +217,12 @@
   </si>
   <si>
     <t>BDAY 3/11/2022</t>
+  </si>
+  <si>
+    <t>TICC</t>
+  </si>
+  <si>
+    <t>BDAY 3/10/2023</t>
   </si>
 </sst>
 </file>
@@ -595,17 +601,11 @@
     <xf numFmtId="165" fontId="1" fillId="0" borderId="10" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -619,20 +619,26 @@
     <xf numFmtId="14" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="166" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="166" fontId="1" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1323,7 +1329,7 @@
         <xdr:cNvPr id="7" name="Picture 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3B5D8F3C-4FD5-4318-83F6-163B56792B3A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{3B5D8F3C-4FD5-4318-83F6-163B56792B3A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1366,7 +1372,7 @@
         <xdr:cNvPr id="5" name="TextBox 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A0BAE224-67DC-A2F7-0A1F-28CB86DFB7CA}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A0BAE224-67DC-A2F7-0A1F-28CB86DFB7CA}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1430,7 +1436,7 @@
         <xdr:cNvPr id="4" name="Arrow: Left 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7243AC54-FD55-C7CF-DEF3-E45E6F99CAA1}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{7243AC54-FD55-C7CF-DEF3-E45E6F99CAA1}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1490,7 +1496,7 @@
         <xdr:cNvPr id="8" name="Oval 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6CEC4AD9-D5D6-0CFD-8D82-CC23F90E3707}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6CEC4AD9-D5D6-0CFD-8D82-CC23F90E3707}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1556,7 +1562,7 @@
         <xdr:cNvPr id="9" name="Arrow: Left-Right 8">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EAE8B24D-B9B9-4AB0-AE94-782594B55A03}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EAE8B24D-B9B9-4AB0-AE94-782594B55A03}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1619,7 +1625,7 @@
         <xdr:cNvPr id="10" name="TextBox 9">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D163C4F0-3D7F-3E52-4B17-0D29F1241915}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D163C4F0-3D7F-3E52-4B17-0D29F1241915}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1717,7 +1723,7 @@
         <xdr:cNvPr id="14" name="Straight Arrow Connector 13">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{642CA079-93A1-34E3-CEF5-F7D33015D895}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{642CA079-93A1-34E3-CEF5-F7D33015D895}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1776,7 +1782,7 @@
         <xdr:cNvPr id="19" name="TextBox 18">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{784FECEA-1780-3E7F-7EBB-9F8254797C91}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{784FECEA-1780-3E7F-7EBB-9F8254797C91}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1841,7 +1847,7 @@
         <xdr:cNvPr id="20" name="Picture 19">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5DCCE859-255F-F039-E92D-1510F02C6167}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{5DCCE859-255F-F039-E92D-1510F02C6167}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1884,7 +1890,7 @@
         <xdr:cNvPr id="21" name="TextBox 20">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0A7AA7C6-9540-EB37-E3D2-9A2A68BD6824}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0A7AA7C6-9540-EB37-E3D2-9A2A68BD6824}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1959,7 +1965,7 @@
         <xdr:cNvPr id="22" name="TextBox 21">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F1674299-9801-A253-3871-18715F4FF740}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{F1674299-9801-A253-3871-18715F4FF740}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2145,7 +2151,7 @@
         <xdr:cNvPr id="23" name="Oval 22">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{66C92862-99CA-461F-932E-30DFD0874402}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{66C92862-99CA-461F-932E-30DFD0874402}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2211,7 +2217,7 @@
         <xdr:cNvPr id="24" name="Straight Arrow Connector 23">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FD20A152-8288-4C69-BE76-AD8E41A960CE}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{FD20A152-8288-4C69-BE76-AD8E41A960CE}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2269,7 +2275,7 @@
         <xdr:cNvPr id="26" name="Oval 25">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EE7E56BE-0B3E-4110-A5A9-44C888A46B90}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EE7E56BE-0B3E-4110-A5A9-44C888A46B90}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2335,7 +2341,7 @@
         <xdr:cNvPr id="27" name="Straight Arrow Connector 26">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C33E41C1-1592-4272-A561-4833666913C5}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C33E41C1-1592-4272-A561-4833666913C5}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2391,7 +2397,7 @@
         <xdr:cNvPr id="30" name="TextBox 29">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6C655B57-0D66-4740-B73E-75D1E106F99A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6C655B57-0D66-4740-B73E-75D1E106F99A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2466,7 +2472,7 @@
         <xdr:cNvPr id="31" name="Picture 30">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0284C105-1E11-4529-B509-D655B8C5279A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0284C105-1E11-4529-B509-D655B8C5279A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2509,7 +2515,7 @@
         <xdr:cNvPr id="32" name="Oval 31">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E73E9A40-2B3C-47DC-9C07-7C65795CE0A2}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{E73E9A40-2B3C-47DC-9C07-7C65795CE0A2}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2575,7 +2581,7 @@
         <xdr:cNvPr id="33" name="Straight Arrow Connector 32">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{32002197-8137-42BA-B3E7-2690738DB64B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{32002197-8137-42BA-B3E7-2690738DB64B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2631,7 +2637,7 @@
         <xdr:cNvPr id="34" name="TextBox 33">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A781E01A-37B6-4259-9759-556FE6893D51}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A781E01A-37B6-4259-9759-556FE6893D51}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2729,7 +2735,7 @@
         <xdr:cNvPr id="2" name="Rectangle 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C99D8E5F-2D60-FF91-2593-A29CC276458B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C99D8E5F-2D60-FF91-2593-A29CC276458B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2792,7 +2798,7 @@
         <xdr:cNvPr id="3" name="Rectangle 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D7E6A331-FC2C-4EF9-8F5B-65908D453D1C}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D7E6A331-FC2C-4EF9-8F5B-65908D453D1C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3270,8 +3276,8 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
       <pane ySplit="4425" topLeftCell="A52" activePane="bottomLeft"/>
-      <selection activeCell="I9" sqref="I9"/>
-      <selection pane="bottomLeft" activeCell="C63" sqref="C63"/>
+      <selection activeCell="F4" sqref="F4:G4"/>
+      <selection pane="bottomLeft" activeCell="B62" sqref="B62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3293,60 +3299,62 @@
       <c r="A2" s="29" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="49" t="s">
+      <c r="B2" s="50" t="s">
         <v>49</v>
       </c>
-      <c r="C2" s="49"/>
+      <c r="C2" s="50"/>
       <c r="D2" s="21" t="s">
         <v>14</v>
       </c>
       <c r="E2" s="10"/>
-      <c r="F2" s="53"/>
-      <c r="G2" s="53"/>
+      <c r="F2" s="51"/>
+      <c r="G2" s="51"/>
       <c r="H2" s="28" t="s">
         <v>10</v>
       </c>
       <c r="I2" s="25"/>
-      <c r="J2" s="54"/>
-      <c r="K2" s="55"/>
+      <c r="J2" s="52"/>
+      <c r="K2" s="53"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="B3" s="49"/>
-      <c r="C3" s="49"/>
+      <c r="B3" s="50"/>
+      <c r="C3" s="50"/>
       <c r="D3" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="F3" s="56"/>
-      <c r="G3" s="50"/>
+      <c r="F3" s="54"/>
+      <c r="G3" s="55"/>
       <c r="H3" s="26" t="s">
         <v>11</v>
       </c>
       <c r="I3" s="26"/>
-      <c r="J3" s="57"/>
-      <c r="K3" s="58"/>
+      <c r="J3" s="56"/>
+      <c r="K3" s="57"/>
     </row>
     <row r="4" spans="1:11" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="B4" s="49" t="s">
+      <c r="B4" s="50" t="s">
         <v>47</v>
       </c>
-      <c r="C4" s="49"/>
+      <c r="C4" s="50"/>
       <c r="D4" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="F4" s="50"/>
-      <c r="G4" s="50"/>
+      <c r="F4" s="55" t="s">
+        <v>60</v>
+      </c>
+      <c r="G4" s="55"/>
       <c r="H4" s="26" t="s">
         <v>17</v>
       </c>
       <c r="I4" s="26"/>
-      <c r="J4" s="50"/>
-      <c r="K4" s="51"/>
+      <c r="J4" s="55"/>
+      <c r="K4" s="58"/>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="16"/>
@@ -3372,18 +3380,18 @@
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="14"/>
       <c r="B7" s="14"/>
-      <c r="C7" s="52" t="s">
+      <c r="C7" s="59" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="52"/>
-      <c r="E7" s="52"/>
-      <c r="F7" s="52"/>
-      <c r="G7" s="52" t="s">
+      <c r="D7" s="59"/>
+      <c r="E7" s="59"/>
+      <c r="F7" s="59"/>
+      <c r="G7" s="59" t="s">
         <v>7</v>
       </c>
-      <c r="H7" s="52"/>
-      <c r="I7" s="52"/>
-      <c r="J7" s="52"/>
+      <c r="H7" s="59"/>
+      <c r="I7" s="59"/>
+      <c r="J7" s="59"/>
       <c r="K7" s="14"/>
     </row>
     <row r="8" spans="1:11" ht="45" x14ac:dyDescent="0.25">
@@ -3430,7 +3438,7 @@
       <c r="D9" s="11"/>
       <c r="E9" s="13">
         <f>SUM(Table15[EARNED])-SUM(Table15[Absence Undertime W/ Pay])</f>
-        <v>40</v>
+        <v>41.25</v>
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="13" t="str">
@@ -3440,7 +3448,7 @@
       <c r="H9" s="11"/>
       <c r="I9" s="13">
         <f>SUM(Table15[[EARNED ]])-SUM(Table15[Absence Undertime  W/ Pay])</f>
-        <v>55</v>
+        <v>56.25</v>
       </c>
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
@@ -3665,7 +3673,7 @@
       <c r="H20" s="39"/>
       <c r="I20" s="9"/>
       <c r="J20" s="11"/>
-      <c r="K20" s="61">
+      <c r="K20" s="49">
         <v>43901</v>
       </c>
     </row>
@@ -3871,7 +3879,7 @@
       <c r="H30" s="39"/>
       <c r="I30" s="9"/>
       <c r="J30" s="11"/>
-      <c r="K30" s="61">
+      <c r="K30" s="49">
         <v>44195</v>
       </c>
     </row>
@@ -3953,7 +3961,7 @@
       <c r="H34" s="39"/>
       <c r="I34" s="9"/>
       <c r="J34" s="11"/>
-      <c r="K34" s="61">
+      <c r="K34" s="49">
         <v>44267</v>
       </c>
     </row>
@@ -4492,20 +4500,28 @@
       <c r="K60" s="20"/>
     </row>
     <row r="61" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A61" s="40"/>
-      <c r="B61" s="20"/>
-      <c r="C61" s="13"/>
+      <c r="A61" s="40">
+        <v>44986</v>
+      </c>
+      <c r="B61" s="20" t="s">
+        <v>52</v>
+      </c>
+      <c r="C61" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D61" s="39"/>
       <c r="E61" s="9"/>
       <c r="F61" s="20"/>
-      <c r="G61" s="13" t="str">
-        <f>IF(ISBLANK(Table15[[#This Row],[EARNED]]),"",Table15[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G61" s="13">
+        <f>IF(ISBLANK(Table15[[#This Row],[EARNED]]),"",Table15[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H61" s="39"/>
       <c r="I61" s="9"/>
       <c r="J61" s="11"/>
-      <c r="K61" s="20"/>
+      <c r="K61" s="20" t="s">
+        <v>61</v>
+      </c>
     </row>
     <row r="62" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A62" s="40"/>
@@ -5405,17 +5421,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="F4:G4"/>
+    <mergeCell ref="J4:K4"/>
+    <mergeCell ref="C7:F7"/>
+    <mergeCell ref="G7:J7"/>
     <mergeCell ref="B2:C2"/>
     <mergeCell ref="F2:G2"/>
     <mergeCell ref="J2:K2"/>
     <mergeCell ref="B3:C3"/>
     <mergeCell ref="F3:G3"/>
     <mergeCell ref="J3:K3"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="F4:G4"/>
-    <mergeCell ref="J4:K4"/>
-    <mergeCell ref="C7:F7"/>
-    <mergeCell ref="G7:J7"/>
   </mergeCells>
   <dataValidations disablePrompts="1" count="2">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4">
@@ -5475,71 +5491,71 @@
       <c r="A2" s="29" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="49" t="str">
+      <c r="B2" s="50" t="str">
         <f>IF(ISBLANK('2018 LEAVE CREDITS'!B2:C2),"---------",'2018 LEAVE CREDITS'!B2:C2)</f>
         <v>RAMOS, EULOGIA</v>
       </c>
-      <c r="C2" s="49"/>
+      <c r="C2" s="50"/>
       <c r="D2" s="21" t="s">
         <v>14</v>
       </c>
       <c r="E2" s="10"/>
-      <c r="F2" s="53"/>
-      <c r="G2" s="53"/>
+      <c r="F2" s="51"/>
+      <c r="G2" s="51"/>
       <c r="H2" s="28" t="s">
         <v>10</v>
       </c>
       <c r="I2" s="25"/>
-      <c r="J2" s="54"/>
-      <c r="K2" s="55"/>
+      <c r="J2" s="52"/>
+      <c r="K2" s="53"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="B3" s="49" t="str">
+      <c r="B3" s="50" t="str">
         <f>IF(ISBLANK('2018 LEAVE CREDITS'!B3:C3),"",'2018 LEAVE CREDITS'!B3:C3)</f>
         <v/>
       </c>
-      <c r="C3" s="49"/>
+      <c r="C3" s="50"/>
       <c r="D3" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="F3" s="56" t="str">
+      <c r="F3" s="54" t="str">
         <f>IF(ISBLANK('2018 LEAVE CREDITS'!F3:G3),"---------",'2018 LEAVE CREDITS'!F3:G3)</f>
         <v>---------</v>
       </c>
-      <c r="G3" s="50"/>
+      <c r="G3" s="55"/>
       <c r="H3" s="26" t="s">
         <v>11</v>
       </c>
       <c r="I3" s="26"/>
-      <c r="J3" s="57"/>
-      <c r="K3" s="58"/>
+      <c r="J3" s="56"/>
+      <c r="K3" s="57"/>
     </row>
     <row r="4" spans="1:11" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="B4" s="49" t="str">
+      <c r="B4" s="50" t="str">
         <f>IF(ISBLANK('2018 LEAVE CREDITS'!B4:C4),"---------",'2018 LEAVE CREDITS'!B4:C4)</f>
         <v>CASUAL</v>
       </c>
-      <c r="C4" s="49"/>
+      <c r="C4" s="50"/>
       <c r="D4" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="F4" s="50" t="str">
+      <c r="F4" s="55" t="str">
         <f>IF(ISBLANK('2018 LEAVE CREDITS'!F4:G4),"",'2018 LEAVE CREDITS'!F4:G4)</f>
-        <v/>
-      </c>
-      <c r="G4" s="50"/>
+        <v>TICC</v>
+      </c>
+      <c r="G4" s="55"/>
       <c r="H4" s="26" t="s">
         <v>17</v>
       </c>
       <c r="I4" s="26"/>
-      <c r="J4" s="50"/>
-      <c r="K4" s="51"/>
+      <c r="J4" s="55"/>
+      <c r="K4" s="58"/>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="16"/>
@@ -5565,18 +5581,18 @@
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="14"/>
       <c r="B7" s="14"/>
-      <c r="C7" s="52" t="s">
+      <c r="C7" s="59" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="52"/>
-      <c r="E7" s="52"/>
-      <c r="F7" s="52"/>
-      <c r="G7" s="52" t="s">
+      <c r="D7" s="59"/>
+      <c r="E7" s="59"/>
+      <c r="F7" s="59"/>
+      <c r="G7" s="59" t="s">
         <v>7</v>
       </c>
-      <c r="H7" s="52"/>
-      <c r="I7" s="52"/>
-      <c r="J7" s="52"/>
+      <c r="H7" s="59"/>
+      <c r="I7" s="59"/>
+      <c r="J7" s="59"/>
       <c r="K7" s="14"/>
     </row>
     <row r="8" spans="1:11" ht="45" x14ac:dyDescent="0.25">
@@ -7642,17 +7658,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="D1" s="59" t="s">
+      <c r="D1" s="60" t="s">
         <v>33</v>
       </c>
-      <c r="E1" s="59"/>
-      <c r="F1" s="59"/>
-      <c r="G1" s="59"/>
-      <c r="J1" s="60" t="s">
+      <c r="E1" s="60"/>
+      <c r="F1" s="60"/>
+      <c r="G1" s="60"/>
+      <c r="J1" s="61" t="s">
         <v>34</v>
       </c>
-      <c r="K1" s="60"/>
-      <c r="L1" s="60"/>
+      <c r="K1" s="61"/>
+      <c r="L1" s="61"/>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="32" t="s">
@@ -7727,12 +7743,12 @@
         <v>30</v>
       </c>
       <c r="G6" s="44"/>
-      <c r="I6" s="60" t="s">
+      <c r="I6" s="61" t="s">
         <v>38</v>
       </c>
-      <c r="J6" s="60"/>
-      <c r="K6" s="60"/>
-      <c r="L6" s="60"/>
+      <c r="J6" s="61"/>
+      <c r="K6" s="61"/>
+      <c r="L6" s="61"/>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C7" s="37">

--- a/NEW HR/RAMOS, EULOGIA.xlsx
+++ b/NEW HR/RAMOS, EULOGIA.xlsx
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="63">
   <si>
     <t>PERIOD</t>
   </si>
@@ -223,6 +223,9 @@
   </si>
   <si>
     <t>BDAY 3/10/2023</t>
+  </si>
+  <si>
+    <t>ANNIV 12/28/2022</t>
   </si>
 </sst>
 </file>
@@ -607,6 +610,15 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -619,20 +631,11 @@
     <xf numFmtId="14" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="166" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="166" fontId="1" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1329,7 +1332,7 @@
         <xdr:cNvPr id="7" name="Picture 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{3B5D8F3C-4FD5-4318-83F6-163B56792B3A}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3B5D8F3C-4FD5-4318-83F6-163B56792B3A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1372,7 +1375,7 @@
         <xdr:cNvPr id="5" name="TextBox 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A0BAE224-67DC-A2F7-0A1F-28CB86DFB7CA}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A0BAE224-67DC-A2F7-0A1F-28CB86DFB7CA}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1436,7 +1439,7 @@
         <xdr:cNvPr id="4" name="Arrow: Left 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{7243AC54-FD55-C7CF-DEF3-E45E6F99CAA1}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7243AC54-FD55-C7CF-DEF3-E45E6F99CAA1}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1496,7 +1499,7 @@
         <xdr:cNvPr id="8" name="Oval 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6CEC4AD9-D5D6-0CFD-8D82-CC23F90E3707}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6CEC4AD9-D5D6-0CFD-8D82-CC23F90E3707}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1562,7 +1565,7 @@
         <xdr:cNvPr id="9" name="Arrow: Left-Right 8">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EAE8B24D-B9B9-4AB0-AE94-782594B55A03}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EAE8B24D-B9B9-4AB0-AE94-782594B55A03}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1625,7 +1628,7 @@
         <xdr:cNvPr id="10" name="TextBox 9">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D163C4F0-3D7F-3E52-4B17-0D29F1241915}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D163C4F0-3D7F-3E52-4B17-0D29F1241915}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1723,7 +1726,7 @@
         <xdr:cNvPr id="14" name="Straight Arrow Connector 13">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{642CA079-93A1-34E3-CEF5-F7D33015D895}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{642CA079-93A1-34E3-CEF5-F7D33015D895}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1782,7 +1785,7 @@
         <xdr:cNvPr id="19" name="TextBox 18">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{784FECEA-1780-3E7F-7EBB-9F8254797C91}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{784FECEA-1780-3E7F-7EBB-9F8254797C91}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1847,7 +1850,7 @@
         <xdr:cNvPr id="20" name="Picture 19">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{5DCCE859-255F-F039-E92D-1510F02C6167}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5DCCE859-255F-F039-E92D-1510F02C6167}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1890,7 +1893,7 @@
         <xdr:cNvPr id="21" name="TextBox 20">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0A7AA7C6-9540-EB37-E3D2-9A2A68BD6824}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0A7AA7C6-9540-EB37-E3D2-9A2A68BD6824}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1965,7 +1968,7 @@
         <xdr:cNvPr id="22" name="TextBox 21">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{F1674299-9801-A253-3871-18715F4FF740}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F1674299-9801-A253-3871-18715F4FF740}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2151,7 +2154,7 @@
         <xdr:cNvPr id="23" name="Oval 22">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{66C92862-99CA-461F-932E-30DFD0874402}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{66C92862-99CA-461F-932E-30DFD0874402}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2217,7 +2220,7 @@
         <xdr:cNvPr id="24" name="Straight Arrow Connector 23">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{FD20A152-8288-4C69-BE76-AD8E41A960CE}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FD20A152-8288-4C69-BE76-AD8E41A960CE}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2275,7 +2278,7 @@
         <xdr:cNvPr id="26" name="Oval 25">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EE7E56BE-0B3E-4110-A5A9-44C888A46B90}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EE7E56BE-0B3E-4110-A5A9-44C888A46B90}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2341,7 +2344,7 @@
         <xdr:cNvPr id="27" name="Straight Arrow Connector 26">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C33E41C1-1592-4272-A561-4833666913C5}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C33E41C1-1592-4272-A561-4833666913C5}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2397,7 +2400,7 @@
         <xdr:cNvPr id="30" name="TextBox 29">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6C655B57-0D66-4740-B73E-75D1E106F99A}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6C655B57-0D66-4740-B73E-75D1E106F99A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2472,7 +2475,7 @@
         <xdr:cNvPr id="31" name="Picture 30">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0284C105-1E11-4529-B509-D655B8C5279A}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0284C105-1E11-4529-B509-D655B8C5279A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2515,7 +2518,7 @@
         <xdr:cNvPr id="32" name="Oval 31">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{E73E9A40-2B3C-47DC-9C07-7C65795CE0A2}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E73E9A40-2B3C-47DC-9C07-7C65795CE0A2}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2581,7 +2584,7 @@
         <xdr:cNvPr id="33" name="Straight Arrow Connector 32">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{32002197-8137-42BA-B3E7-2690738DB64B}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{32002197-8137-42BA-B3E7-2690738DB64B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2637,7 +2640,7 @@
         <xdr:cNvPr id="34" name="TextBox 33">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A781E01A-37B6-4259-9759-556FE6893D51}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A781E01A-37B6-4259-9759-556FE6893D51}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2735,7 +2738,7 @@
         <xdr:cNvPr id="2" name="Rectangle 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C99D8E5F-2D60-FF91-2593-A29CC276458B}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C99D8E5F-2D60-FF91-2593-A29CC276458B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2798,7 +2801,7 @@
         <xdr:cNvPr id="3" name="Rectangle 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D7E6A331-FC2C-4EF9-8F5B-65908D453D1C}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D7E6A331-FC2C-4EF9-8F5B-65908D453D1C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2864,7 +2867,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Table15" displayName="Table15" ref="A8:K117" totalsRowShown="0" headerRowDxfId="39" headerRowBorderDxfId="38" tableBorderDxfId="37" totalsRowBorderDxfId="36">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Table15" displayName="Table15" ref="A8:K118" totalsRowShown="0" headerRowDxfId="39" headerRowBorderDxfId="38" tableBorderDxfId="37" totalsRowBorderDxfId="36">
   <tableColumns count="11">
     <tableColumn id="1" name="PERIOD" dataDxfId="35"/>
     <tableColumn id="2" name="PARTICULARS" dataDxfId="34"/>
@@ -3272,12 +3275,12 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A2:K117"/>
+  <dimension ref="A2:K118"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
       <pane ySplit="4425" topLeftCell="A52" activePane="bottomLeft"/>
       <selection activeCell="F4" sqref="F4:G4"/>
-      <selection pane="bottomLeft" activeCell="B62" sqref="B62"/>
+      <selection pane="bottomLeft" activeCell="B59" sqref="B59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3307,14 +3310,14 @@
         <v>14</v>
       </c>
       <c r="E2" s="10"/>
-      <c r="F2" s="51"/>
-      <c r="G2" s="51"/>
+      <c r="F2" s="54"/>
+      <c r="G2" s="54"/>
       <c r="H2" s="28" t="s">
         <v>10</v>
       </c>
       <c r="I2" s="25"/>
-      <c r="J2" s="52"/>
-      <c r="K2" s="53"/>
+      <c r="J2" s="55"/>
+      <c r="K2" s="56"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="18" t="s">
@@ -3325,14 +3328,14 @@
       <c r="D3" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="F3" s="54"/>
-      <c r="G3" s="55"/>
+      <c r="F3" s="57"/>
+      <c r="G3" s="51"/>
       <c r="H3" s="26" t="s">
         <v>11</v>
       </c>
       <c r="I3" s="26"/>
-      <c r="J3" s="56"/>
-      <c r="K3" s="57"/>
+      <c r="J3" s="58"/>
+      <c r="K3" s="59"/>
     </row>
     <row r="4" spans="1:11" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="18" t="s">
@@ -3345,16 +3348,16 @@
       <c r="D4" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="F4" s="55" t="s">
+      <c r="F4" s="51" t="s">
         <v>60</v>
       </c>
-      <c r="G4" s="55"/>
+      <c r="G4" s="51"/>
       <c r="H4" s="26" t="s">
         <v>17</v>
       </c>
       <c r="I4" s="26"/>
-      <c r="J4" s="55"/>
-      <c r="K4" s="58"/>
+      <c r="J4" s="51"/>
+      <c r="K4" s="52"/>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="16"/>
@@ -3380,18 +3383,18 @@
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="14"/>
       <c r="B7" s="14"/>
-      <c r="C7" s="59" t="s">
+      <c r="C7" s="53" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="59"/>
-      <c r="E7" s="59"/>
-      <c r="F7" s="59"/>
-      <c r="G7" s="59" t="s">
+      <c r="D7" s="53"/>
+      <c r="E7" s="53"/>
+      <c r="F7" s="53"/>
+      <c r="G7" s="53" t="s">
         <v>7</v>
       </c>
-      <c r="H7" s="59"/>
-      <c r="I7" s="59"/>
-      <c r="J7" s="59"/>
+      <c r="H7" s="53"/>
+      <c r="I7" s="53"/>
+      <c r="J7" s="53"/>
       <c r="K7" s="14"/>
     </row>
     <row r="8" spans="1:11" ht="45" x14ac:dyDescent="0.25">
@@ -4442,10 +4445,10 @@
       <c r="K57" s="20"/>
     </row>
     <row r="58" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A58" s="48" t="s">
-        <v>46</v>
-      </c>
-      <c r="B58" s="20"/>
+      <c r="A58" s="40"/>
+      <c r="B58" s="20" t="s">
+        <v>52</v>
+      </c>
       <c r="C58" s="13"/>
       <c r="D58" s="39"/>
       <c r="E58" s="9"/>
@@ -4457,22 +4460,22 @@
       <c r="H58" s="39"/>
       <c r="I58" s="9"/>
       <c r="J58" s="11"/>
-      <c r="K58" s="20"/>
+      <c r="K58" s="20" t="s">
+        <v>62</v>
+      </c>
     </row>
     <row r="59" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A59" s="40">
-        <v>44927</v>
+      <c r="A59" s="48" t="s">
+        <v>46</v>
       </c>
       <c r="B59" s="20"/>
-      <c r="C59" s="13">
-        <v>1.25</v>
-      </c>
+      <c r="C59" s="13"/>
       <c r="D59" s="39"/>
       <c r="E59" s="9"/>
       <c r="F59" s="20"/>
-      <c r="G59" s="13">
-        <f>IF(ISBLANK(Table15[[#This Row],[EARNED]]),"",Table15[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
+      <c r="G59" s="13" t="str">
+        <f>IF(ISBLANK(Table15[[#This Row],[EARNED]]),"",Table15[[#This Row],[EARNED]])</f>
+        <v/>
       </c>
       <c r="H59" s="39"/>
       <c r="I59" s="9"/>
@@ -4481,7 +4484,7 @@
     </row>
     <row r="60" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A60" s="40">
-        <v>44958</v>
+        <v>44927</v>
       </c>
       <c r="B60" s="20"/>
       <c r="C60" s="13">
@@ -4501,11 +4504,9 @@
     </row>
     <row r="61" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A61" s="40">
-        <v>44986</v>
-      </c>
-      <c r="B61" s="20" t="s">
-        <v>52</v>
-      </c>
+        <v>44958</v>
+      </c>
+      <c r="B61" s="20"/>
       <c r="C61" s="13">
         <v>1.25</v>
       </c>
@@ -4519,25 +4520,31 @@
       <c r="H61" s="39"/>
       <c r="I61" s="9"/>
       <c r="J61" s="11"/>
-      <c r="K61" s="20" t="s">
-        <v>61</v>
-      </c>
+      <c r="K61" s="20"/>
     </row>
     <row r="62" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A62" s="40"/>
-      <c r="B62" s="20"/>
-      <c r="C62" s="13"/>
+      <c r="A62" s="40">
+        <v>44986</v>
+      </c>
+      <c r="B62" s="20" t="s">
+        <v>52</v>
+      </c>
+      <c r="C62" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D62" s="39"/>
       <c r="E62" s="9"/>
       <c r="F62" s="20"/>
-      <c r="G62" s="13" t="str">
-        <f>IF(ISBLANK(Table15[[#This Row],[EARNED]]),"",Table15[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G62" s="13">
+        <f>IF(ISBLANK(Table15[[#This Row],[EARNED]]),"",Table15[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H62" s="39"/>
       <c r="I62" s="9"/>
       <c r="J62" s="11"/>
-      <c r="K62" s="20"/>
+      <c r="K62" s="20" t="s">
+        <v>61</v>
+      </c>
     </row>
     <row r="63" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A63" s="40"/>
@@ -5404,34 +5411,50 @@
       <c r="K116" s="20"/>
     </row>
     <row r="117" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A117" s="41"/>
-      <c r="B117" s="15"/>
-      <c r="C117" s="42"/>
-      <c r="D117" s="43"/>
+      <c r="A117" s="40"/>
+      <c r="B117" s="20"/>
+      <c r="C117" s="13"/>
+      <c r="D117" s="39"/>
       <c r="E117" s="9"/>
-      <c r="F117" s="15"/>
-      <c r="G117" s="42" t="str">
-        <f>IF(ISBLANK(Table15[[#This Row],[EARNED]]),"",Table15[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H117" s="43"/>
+      <c r="F117" s="20"/>
+      <c r="G117" s="13" t="str">
+        <f>IF(ISBLANK(Table15[[#This Row],[EARNED]]),"",Table15[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H117" s="39"/>
       <c r="I117" s="9"/>
-      <c r="J117" s="12"/>
-      <c r="K117" s="15"/>
+      <c r="J117" s="11"/>
+      <c r="K117" s="20"/>
+    </row>
+    <row r="118" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A118" s="41"/>
+      <c r="B118" s="15"/>
+      <c r="C118" s="42"/>
+      <c r="D118" s="43"/>
+      <c r="E118" s="9"/>
+      <c r="F118" s="15"/>
+      <c r="G118" s="42" t="str">
+        <f>IF(ISBLANK(Table15[[#This Row],[EARNED]]),"",Table15[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H118" s="43"/>
+      <c r="I118" s="9"/>
+      <c r="J118" s="12"/>
+      <c r="K118" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="F4:G4"/>
-    <mergeCell ref="J4:K4"/>
-    <mergeCell ref="C7:F7"/>
-    <mergeCell ref="G7:J7"/>
     <mergeCell ref="B2:C2"/>
     <mergeCell ref="F2:G2"/>
     <mergeCell ref="J2:K2"/>
     <mergeCell ref="B3:C3"/>
     <mergeCell ref="F3:G3"/>
     <mergeCell ref="J3:K3"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="F4:G4"/>
+    <mergeCell ref="J4:K4"/>
+    <mergeCell ref="C7:F7"/>
+    <mergeCell ref="G7:J7"/>
   </mergeCells>
   <dataValidations disablePrompts="1" count="2">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4">
@@ -5500,14 +5523,14 @@
         <v>14</v>
       </c>
       <c r="E2" s="10"/>
-      <c r="F2" s="51"/>
-      <c r="G2" s="51"/>
+      <c r="F2" s="54"/>
+      <c r="G2" s="54"/>
       <c r="H2" s="28" t="s">
         <v>10</v>
       </c>
       <c r="I2" s="25"/>
-      <c r="J2" s="52"/>
-      <c r="K2" s="53"/>
+      <c r="J2" s="55"/>
+      <c r="K2" s="56"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="18" t="s">
@@ -5521,17 +5544,17 @@
       <c r="D3" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="F3" s="54" t="str">
+      <c r="F3" s="57" t="str">
         <f>IF(ISBLANK('2018 LEAVE CREDITS'!F3:G3),"---------",'2018 LEAVE CREDITS'!F3:G3)</f>
         <v>---------</v>
       </c>
-      <c r="G3" s="55"/>
+      <c r="G3" s="51"/>
       <c r="H3" s="26" t="s">
         <v>11</v>
       </c>
       <c r="I3" s="26"/>
-      <c r="J3" s="56"/>
-      <c r="K3" s="57"/>
+      <c r="J3" s="58"/>
+      <c r="K3" s="59"/>
     </row>
     <row r="4" spans="1:11" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="18" t="s">
@@ -5545,17 +5568,17 @@
       <c r="D4" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="F4" s="55" t="str">
+      <c r="F4" s="51" t="str">
         <f>IF(ISBLANK('2018 LEAVE CREDITS'!F4:G4),"",'2018 LEAVE CREDITS'!F4:G4)</f>
         <v>TICC</v>
       </c>
-      <c r="G4" s="55"/>
+      <c r="G4" s="51"/>
       <c r="H4" s="26" t="s">
         <v>17</v>
       </c>
       <c r="I4" s="26"/>
-      <c r="J4" s="55"/>
-      <c r="K4" s="58"/>
+      <c r="J4" s="51"/>
+      <c r="K4" s="52"/>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="16"/>
@@ -5581,18 +5604,18 @@
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="14"/>
       <c r="B7" s="14"/>
-      <c r="C7" s="59" t="s">
+      <c r="C7" s="53" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="59"/>
-      <c r="E7" s="59"/>
-      <c r="F7" s="59"/>
-      <c r="G7" s="59" t="s">
+      <c r="D7" s="53"/>
+      <c r="E7" s="53"/>
+      <c r="F7" s="53"/>
+      <c r="G7" s="53" t="s">
         <v>7</v>
       </c>
-      <c r="H7" s="59"/>
-      <c r="I7" s="59"/>
-      <c r="J7" s="59"/>
+      <c r="H7" s="53"/>
+      <c r="I7" s="53"/>
+      <c r="J7" s="53"/>
       <c r="K7" s="14"/>
     </row>
     <row r="8" spans="1:11" ht="45" x14ac:dyDescent="0.25">

--- a/NEW HR/RAMOS, EULOGIA.xlsx
+++ b/NEW HR/RAMOS, EULOGIA.xlsx
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="65">
   <si>
     <t>PERIOD</t>
   </si>
@@ -226,6 +226,12 @@
   </si>
   <si>
     <t>ANNIV 12/28/2022</t>
+  </si>
+  <si>
+    <t>VL(3-0-0)</t>
+  </si>
+  <si>
+    <t>9/26,27,28/2023</t>
   </si>
 </sst>
 </file>
@@ -610,15 +616,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -631,11 +628,20 @@
     <xf numFmtId="14" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="166" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="166" fontId="1" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1332,7 +1338,7 @@
         <xdr:cNvPr id="7" name="Picture 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3B5D8F3C-4FD5-4318-83F6-163B56792B3A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{3B5D8F3C-4FD5-4318-83F6-163B56792B3A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1375,7 +1381,7 @@
         <xdr:cNvPr id="5" name="TextBox 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A0BAE224-67DC-A2F7-0A1F-28CB86DFB7CA}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A0BAE224-67DC-A2F7-0A1F-28CB86DFB7CA}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1439,7 +1445,7 @@
         <xdr:cNvPr id="4" name="Arrow: Left 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7243AC54-FD55-C7CF-DEF3-E45E6F99CAA1}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{7243AC54-FD55-C7CF-DEF3-E45E6F99CAA1}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1499,7 +1505,7 @@
         <xdr:cNvPr id="8" name="Oval 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6CEC4AD9-D5D6-0CFD-8D82-CC23F90E3707}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6CEC4AD9-D5D6-0CFD-8D82-CC23F90E3707}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1565,7 +1571,7 @@
         <xdr:cNvPr id="9" name="Arrow: Left-Right 8">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EAE8B24D-B9B9-4AB0-AE94-782594B55A03}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EAE8B24D-B9B9-4AB0-AE94-782594B55A03}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1628,7 +1634,7 @@
         <xdr:cNvPr id="10" name="TextBox 9">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D163C4F0-3D7F-3E52-4B17-0D29F1241915}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D163C4F0-3D7F-3E52-4B17-0D29F1241915}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1726,7 +1732,7 @@
         <xdr:cNvPr id="14" name="Straight Arrow Connector 13">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{642CA079-93A1-34E3-CEF5-F7D33015D895}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{642CA079-93A1-34E3-CEF5-F7D33015D895}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1785,7 +1791,7 @@
         <xdr:cNvPr id="19" name="TextBox 18">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{784FECEA-1780-3E7F-7EBB-9F8254797C91}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{784FECEA-1780-3E7F-7EBB-9F8254797C91}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1850,7 +1856,7 @@
         <xdr:cNvPr id="20" name="Picture 19">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5DCCE859-255F-F039-E92D-1510F02C6167}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{5DCCE859-255F-F039-E92D-1510F02C6167}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1893,7 +1899,7 @@
         <xdr:cNvPr id="21" name="TextBox 20">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0A7AA7C6-9540-EB37-E3D2-9A2A68BD6824}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0A7AA7C6-9540-EB37-E3D2-9A2A68BD6824}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1968,7 +1974,7 @@
         <xdr:cNvPr id="22" name="TextBox 21">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F1674299-9801-A253-3871-18715F4FF740}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{F1674299-9801-A253-3871-18715F4FF740}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2154,7 +2160,7 @@
         <xdr:cNvPr id="23" name="Oval 22">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{66C92862-99CA-461F-932E-30DFD0874402}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{66C92862-99CA-461F-932E-30DFD0874402}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2220,7 +2226,7 @@
         <xdr:cNvPr id="24" name="Straight Arrow Connector 23">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FD20A152-8288-4C69-BE76-AD8E41A960CE}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{FD20A152-8288-4C69-BE76-AD8E41A960CE}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2278,7 +2284,7 @@
         <xdr:cNvPr id="26" name="Oval 25">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EE7E56BE-0B3E-4110-A5A9-44C888A46B90}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EE7E56BE-0B3E-4110-A5A9-44C888A46B90}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2344,7 +2350,7 @@
         <xdr:cNvPr id="27" name="Straight Arrow Connector 26">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C33E41C1-1592-4272-A561-4833666913C5}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C33E41C1-1592-4272-A561-4833666913C5}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2400,7 +2406,7 @@
         <xdr:cNvPr id="30" name="TextBox 29">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6C655B57-0D66-4740-B73E-75D1E106F99A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6C655B57-0D66-4740-B73E-75D1E106F99A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2475,7 +2481,7 @@
         <xdr:cNvPr id="31" name="Picture 30">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0284C105-1E11-4529-B509-D655B8C5279A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0284C105-1E11-4529-B509-D655B8C5279A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2518,7 +2524,7 @@
         <xdr:cNvPr id="32" name="Oval 31">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E73E9A40-2B3C-47DC-9C07-7C65795CE0A2}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{E73E9A40-2B3C-47DC-9C07-7C65795CE0A2}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2584,7 +2590,7 @@
         <xdr:cNvPr id="33" name="Straight Arrow Connector 32">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{32002197-8137-42BA-B3E7-2690738DB64B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{32002197-8137-42BA-B3E7-2690738DB64B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2640,7 +2646,7 @@
         <xdr:cNvPr id="34" name="TextBox 33">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A781E01A-37B6-4259-9759-556FE6893D51}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A781E01A-37B6-4259-9759-556FE6893D51}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2738,7 +2744,7 @@
         <xdr:cNvPr id="2" name="Rectangle 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C99D8E5F-2D60-FF91-2593-A29CC276458B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C99D8E5F-2D60-FF91-2593-A29CC276458B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2801,7 +2807,7 @@
         <xdr:cNvPr id="3" name="Rectangle 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D7E6A331-FC2C-4EF9-8F5B-65908D453D1C}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D7E6A331-FC2C-4EF9-8F5B-65908D453D1C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3278,9 +3284,9 @@
   <dimension ref="A2:K118"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <pane ySplit="4425" topLeftCell="A52" activePane="bottomLeft"/>
+      <pane ySplit="4425" topLeftCell="A56" activePane="bottomLeft"/>
       <selection activeCell="F4" sqref="F4:G4"/>
-      <selection pane="bottomLeft" activeCell="B59" sqref="B59"/>
+      <selection pane="bottomLeft" activeCell="E68" sqref="E68"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3310,14 +3316,14 @@
         <v>14</v>
       </c>
       <c r="E2" s="10"/>
-      <c r="F2" s="54"/>
-      <c r="G2" s="54"/>
+      <c r="F2" s="51"/>
+      <c r="G2" s="51"/>
       <c r="H2" s="28" t="s">
         <v>10</v>
       </c>
       <c r="I2" s="25"/>
-      <c r="J2" s="55"/>
-      <c r="K2" s="56"/>
+      <c r="J2" s="52"/>
+      <c r="K2" s="53"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="18" t="s">
@@ -3328,14 +3334,14 @@
       <c r="D3" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="F3" s="57"/>
-      <c r="G3" s="51"/>
+      <c r="F3" s="54"/>
+      <c r="G3" s="55"/>
       <c r="H3" s="26" t="s">
         <v>11</v>
       </c>
       <c r="I3" s="26"/>
-      <c r="J3" s="58"/>
-      <c r="K3" s="59"/>
+      <c r="J3" s="56"/>
+      <c r="K3" s="57"/>
     </row>
     <row r="4" spans="1:11" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="18" t="s">
@@ -3348,16 +3354,16 @@
       <c r="D4" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="F4" s="51" t="s">
+      <c r="F4" s="55" t="s">
         <v>60</v>
       </c>
-      <c r="G4" s="51"/>
+      <c r="G4" s="55"/>
       <c r="H4" s="26" t="s">
         <v>17</v>
       </c>
       <c r="I4" s="26"/>
-      <c r="J4" s="51"/>
-      <c r="K4" s="52"/>
+      <c r="J4" s="55"/>
+      <c r="K4" s="58"/>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="16"/>
@@ -3383,18 +3389,18 @@
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="14"/>
       <c r="B7" s="14"/>
-      <c r="C7" s="53" t="s">
+      <c r="C7" s="59" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="53"/>
-      <c r="E7" s="53"/>
-      <c r="F7" s="53"/>
-      <c r="G7" s="53" t="s">
+      <c r="D7" s="59"/>
+      <c r="E7" s="59"/>
+      <c r="F7" s="59"/>
+      <c r="G7" s="59" t="s">
         <v>7</v>
       </c>
-      <c r="H7" s="53"/>
-      <c r="I7" s="53"/>
-      <c r="J7" s="53"/>
+      <c r="H7" s="59"/>
+      <c r="I7" s="59"/>
+      <c r="J7" s="59"/>
       <c r="K7" s="14"/>
     </row>
     <row r="8" spans="1:11" ht="45" x14ac:dyDescent="0.25">
@@ -3441,7 +3447,7 @@
       <c r="D9" s="11"/>
       <c r="E9" s="13">
         <f>SUM(Table15[EARNED])-SUM(Table15[Absence Undertime W/ Pay])</f>
-        <v>41.25</v>
+        <v>44.5</v>
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="13" t="str">
@@ -3451,7 +3457,7 @@
       <c r="H9" s="11"/>
       <c r="I9" s="13">
         <f>SUM(Table15[[EARNED ]])-SUM(Table15[Absence Undertime  W/ Pay])</f>
-        <v>56.25</v>
+        <v>62.5</v>
       </c>
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
@@ -4547,15 +4553,19 @@
       </c>
     </row>
     <row r="63" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A63" s="40"/>
+      <c r="A63" s="40">
+        <v>45017</v>
+      </c>
       <c r="B63" s="20"/>
-      <c r="C63" s="13"/>
+      <c r="C63" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D63" s="39"/>
       <c r="E63" s="9"/>
       <c r="F63" s="20"/>
-      <c r="G63" s="13" t="str">
-        <f>IF(ISBLANK(Table15[[#This Row],[EARNED]]),"",Table15[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G63" s="13">
+        <f>IF(ISBLANK(Table15[[#This Row],[EARNED]]),"",Table15[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H63" s="39"/>
       <c r="I63" s="9"/>
@@ -4563,15 +4573,19 @@
       <c r="K63" s="20"/>
     </row>
     <row r="64" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A64" s="40"/>
+      <c r="A64" s="40">
+        <v>45047</v>
+      </c>
       <c r="B64" s="20"/>
-      <c r="C64" s="13"/>
+      <c r="C64" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D64" s="39"/>
       <c r="E64" s="9"/>
       <c r="F64" s="20"/>
-      <c r="G64" s="13" t="str">
-        <f>IF(ISBLANK(Table15[[#This Row],[EARNED]]),"",Table15[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G64" s="13">
+        <f>IF(ISBLANK(Table15[[#This Row],[EARNED]]),"",Table15[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H64" s="39"/>
       <c r="I64" s="9"/>
@@ -4579,15 +4593,19 @@
       <c r="K64" s="20"/>
     </row>
     <row r="65" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A65" s="40"/>
+      <c r="A65" s="40">
+        <v>45078</v>
+      </c>
       <c r="B65" s="20"/>
-      <c r="C65" s="13"/>
+      <c r="C65" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D65" s="39"/>
       <c r="E65" s="9"/>
       <c r="F65" s="20"/>
-      <c r="G65" s="13" t="str">
-        <f>IF(ISBLANK(Table15[[#This Row],[EARNED]]),"",Table15[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G65" s="13">
+        <f>IF(ISBLANK(Table15[[#This Row],[EARNED]]),"",Table15[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H65" s="39"/>
       <c r="I65" s="9"/>
@@ -4595,15 +4613,19 @@
       <c r="K65" s="20"/>
     </row>
     <row r="66" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A66" s="40"/>
+      <c r="A66" s="40">
+        <v>45108</v>
+      </c>
       <c r="B66" s="20"/>
-      <c r="C66" s="13"/>
+      <c r="C66" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D66" s="39"/>
       <c r="E66" s="9"/>
       <c r="F66" s="20"/>
-      <c r="G66" s="13" t="str">
-        <f>IF(ISBLANK(Table15[[#This Row],[EARNED]]),"",Table15[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G66" s="13">
+        <f>IF(ISBLANK(Table15[[#This Row],[EARNED]]),"",Table15[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H66" s="39"/>
       <c r="I66" s="9"/>
@@ -4611,15 +4633,19 @@
       <c r="K66" s="20"/>
     </row>
     <row r="67" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A67" s="40"/>
+      <c r="A67" s="40">
+        <v>45139</v>
+      </c>
       <c r="B67" s="20"/>
-      <c r="C67" s="13"/>
+      <c r="C67" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D67" s="39"/>
       <c r="E67" s="9"/>
       <c r="F67" s="20"/>
-      <c r="G67" s="13" t="str">
-        <f>IF(ISBLANK(Table15[[#This Row],[EARNED]]),"",Table15[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G67" s="13">
+        <f>IF(ISBLANK(Table15[[#This Row],[EARNED]]),"",Table15[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H67" s="39"/>
       <c r="I67" s="9"/>
@@ -4627,10 +4653,16 @@
       <c r="K67" s="20"/>
     </row>
     <row r="68" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A68" s="40"/>
-      <c r="B68" s="20"/>
+      <c r="A68" s="40">
+        <v>45170</v>
+      </c>
+      <c r="B68" s="20" t="s">
+        <v>63</v>
+      </c>
       <c r="C68" s="13"/>
-      <c r="D68" s="39"/>
+      <c r="D68" s="39">
+        <v>3</v>
+      </c>
       <c r="E68" s="9"/>
       <c r="F68" s="20"/>
       <c r="G68" s="13" t="str">
@@ -4640,10 +4672,14 @@
       <c r="H68" s="39"/>
       <c r="I68" s="9"/>
       <c r="J68" s="11"/>
-      <c r="K68" s="20"/>
+      <c r="K68" s="20" t="s">
+        <v>64</v>
+      </c>
     </row>
     <row r="69" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A69" s="40"/>
+      <c r="A69" s="40">
+        <v>45200</v>
+      </c>
       <c r="B69" s="20"/>
       <c r="C69" s="13"/>
       <c r="D69" s="39"/>
@@ -5444,17 +5480,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="F4:G4"/>
+    <mergeCell ref="J4:K4"/>
+    <mergeCell ref="C7:F7"/>
+    <mergeCell ref="G7:J7"/>
     <mergeCell ref="B2:C2"/>
     <mergeCell ref="F2:G2"/>
     <mergeCell ref="J2:K2"/>
     <mergeCell ref="B3:C3"/>
     <mergeCell ref="F3:G3"/>
     <mergeCell ref="J3:K3"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="F4:G4"/>
-    <mergeCell ref="J4:K4"/>
-    <mergeCell ref="C7:F7"/>
-    <mergeCell ref="G7:J7"/>
   </mergeCells>
   <dataValidations disablePrompts="1" count="2">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4">
@@ -5523,14 +5559,14 @@
         <v>14</v>
       </c>
       <c r="E2" s="10"/>
-      <c r="F2" s="54"/>
-      <c r="G2" s="54"/>
+      <c r="F2" s="51"/>
+      <c r="G2" s="51"/>
       <c r="H2" s="28" t="s">
         <v>10</v>
       </c>
       <c r="I2" s="25"/>
-      <c r="J2" s="55"/>
-      <c r="K2" s="56"/>
+      <c r="J2" s="52"/>
+      <c r="K2" s="53"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="18" t="s">
@@ -5544,17 +5580,17 @@
       <c r="D3" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="F3" s="57" t="str">
+      <c r="F3" s="54" t="str">
         <f>IF(ISBLANK('2018 LEAVE CREDITS'!F3:G3),"---------",'2018 LEAVE CREDITS'!F3:G3)</f>
         <v>---------</v>
       </c>
-      <c r="G3" s="51"/>
+      <c r="G3" s="55"/>
       <c r="H3" s="26" t="s">
         <v>11</v>
       </c>
       <c r="I3" s="26"/>
-      <c r="J3" s="58"/>
-      <c r="K3" s="59"/>
+      <c r="J3" s="56"/>
+      <c r="K3" s="57"/>
     </row>
     <row r="4" spans="1:11" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="18" t="s">
@@ -5568,17 +5604,17 @@
       <c r="D4" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="F4" s="51" t="str">
+      <c r="F4" s="55" t="str">
         <f>IF(ISBLANK('2018 LEAVE CREDITS'!F4:G4),"",'2018 LEAVE CREDITS'!F4:G4)</f>
         <v>TICC</v>
       </c>
-      <c r="G4" s="51"/>
+      <c r="G4" s="55"/>
       <c r="H4" s="26" t="s">
         <v>17</v>
       </c>
       <c r="I4" s="26"/>
-      <c r="J4" s="51"/>
-      <c r="K4" s="52"/>
+      <c r="J4" s="55"/>
+      <c r="K4" s="58"/>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="16"/>
@@ -5604,18 +5640,18 @@
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="14"/>
       <c r="B7" s="14"/>
-      <c r="C7" s="53" t="s">
+      <c r="C7" s="59" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="53"/>
-      <c r="E7" s="53"/>
-      <c r="F7" s="53"/>
-      <c r="G7" s="53" t="s">
+      <c r="D7" s="59"/>
+      <c r="E7" s="59"/>
+      <c r="F7" s="59"/>
+      <c r="G7" s="59" t="s">
         <v>7</v>
       </c>
-      <c r="H7" s="53"/>
-      <c r="I7" s="53"/>
-      <c r="J7" s="53"/>
+      <c r="H7" s="59"/>
+      <c r="I7" s="59"/>
+      <c r="J7" s="59"/>
       <c r="K7" s="14"/>
     </row>
     <row r="8" spans="1:11" ht="45" x14ac:dyDescent="0.25">
